--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeMonthly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeMonthly201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\2018-19 Test Plan for TAX,NI,Socttish Tax\201819 Payroll Tax Module Input excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4335" windowWidth="14340" xWindow="390" yWindow="210"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -214,6 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,60 +308,60 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="4" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="4" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -377,10 +378,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -415,7 +416,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,7 +468,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,7 +573,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -581,13 +582,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -597,7 +598,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -606,7 +607,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -615,7 +616,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -625,12 +626,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -661,7 +662,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -680,7 +681,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -692,7 +693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -701,10 +702,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="35.450000000000003" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -735,7 +736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -778,13 +779,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -793,13 +794,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -828,7 +829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
@@ -848,7 +849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -868,7 +869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>42</v>
       </c>
@@ -888,7 +889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>43</v>
       </c>
@@ -908,7 +909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>44</v>
       </c>
@@ -928,7 +929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
@@ -948,7 +949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>46</v>
       </c>
@@ -968,7 +969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>47</v>
       </c>
@@ -988,7 +989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>48</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>49</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>50</v>
       </c>
@@ -1048,7 +1049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>51</v>
       </c>
@@ -1070,26 +1071,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A5" r:id="rId8" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A7" r:id="rId9" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A9" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="A3"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId3" ref="A4"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId4" ref="A6"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId5" ref="A8"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId6" ref="A10"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId7" ref="A12"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId8" ref="A5"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId9" ref="A7"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId10" ref="A9"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId11" ref="A11"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId12" ref="A13"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -1098,15 +1099,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="113.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="113.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1150,7 +1151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="2" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="3" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>39</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="4" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="5" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
@@ -1290,7 +1291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="6" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="7" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
@@ -1360,7 +1361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="8" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="9" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -1430,7 +1431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="10" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="11" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="12" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
@@ -1535,7 +1536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="13" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
@@ -1572,26 +1573,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A13" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B4" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B6" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B12" r:id="rId8" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B5" r:id="rId9" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B7" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B9" r:id="rId11" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B11" r:id="rId12" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B13" r:id="rId13" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A13"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="B2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId3" ref="B3"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId4" ref="B4"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId5" ref="B6"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId6" ref="B8"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId7" ref="B10"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId8" ref="B12"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId9" ref="B5"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId10" ref="B7"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId11" ref="B9"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId12" ref="B11"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId13" ref="B13"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
@@ -1600,19 +1601,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="60.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="60.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="33.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -1696,10 +1697,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeMonthly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeMonthly201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\2018-19 Test Plan for TAX,NI,Socttish Tax\201819 Payroll Tax Module Input excel files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4335" windowWidth="14340" xWindow="390" yWindow="210"/>
+    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -214,7 +214,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -308,60 +307,60 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="4" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="4" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -378,10 +377,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -416,7 +415,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,7 +467,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,7 +572,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -582,13 +581,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -598,7 +597,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -607,7 +606,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -616,7 +615,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -626,12 +625,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -662,7 +661,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -681,7 +680,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -693,7 +692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -702,10 +701,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -722,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="35.450000000000003" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -736,7 +735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -779,28 +778,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="9.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
@@ -849,7 +849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -869,7 +869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>42</v>
       </c>
@@ -889,7 +889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>43</v>
       </c>
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>44</v>
       </c>
@@ -929,7 +929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
@@ -949,7 +949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>46</v>
       </c>
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>47</v>
       </c>
@@ -989,7 +989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>48</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>49</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>50</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>51</v>
       </c>
@@ -1071,26 +1071,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="A3"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId3" ref="A4"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId4" ref="A6"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId5" ref="A8"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId6" ref="A10"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId7" ref="A12"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId8" ref="A5"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId9" ref="A7"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId10" ref="A9"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId11" ref="A11"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId12" ref="A13"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A12" r:id="rId7" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A5" r:id="rId8" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A7" r:id="rId9" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A9" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A11" r:id="rId11" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId13"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -1099,15 +1099,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="41.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="113.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="113.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.9" r="2" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.9" r="3" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>39</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.9" r="4" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.9" r="5" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.9" r="6" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.9" r="7" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.9" r="8" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.9" r="9" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.9" r="10" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.9" r="11" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.9" r="12" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.9" r="13" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
@@ -1573,47 +1573,47 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A13"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="B2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId3" ref="B3"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId4" ref="B4"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId5" ref="B6"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId6" ref="B8"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId7" ref="B10"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId8" ref="B12"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId9" ref="B5"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId10" ref="B7"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId11" ref="B9"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId12" ref="B11"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId13" ref="B13"/>
+    <hyperlink ref="A2:A13" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B12" r:id="rId8" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B5" r:id="rId9" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B7" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B9" r:id="rId11" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B11" r:id="rId12" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink ref="B13" r:id="rId13" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="42.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="60.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="60.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -1697,10 +1697,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="B2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeMonthly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeMonthly201819.xlsx
@@ -788,7 +788,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeMonthly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeMonthly201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="210" windowWidth="14340" windowHeight="4335" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="4335" windowWidth="14340" xWindow="390" yWindow="210"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -214,6 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,60 +308,60 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="4" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="4" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -377,10 +378,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -415,7 +416,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,7 +468,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,7 +573,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -581,13 +582,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -597,7 +598,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -606,7 +607,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -615,7 +616,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -625,12 +626,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -661,7 +662,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -680,7 +681,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -692,7 +693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -701,10 +702,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,7 +722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="35.450000000000003" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -735,7 +736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -778,13 +779,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -793,14 +794,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -829,7 +830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
@@ -849,7 +850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -869,7 +870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>42</v>
       </c>
@@ -889,7 +890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>43</v>
       </c>
@@ -909,7 +910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>44</v>
       </c>
@@ -929,7 +930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
@@ -949,7 +950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>46</v>
       </c>
@@ -969,7 +970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>47</v>
       </c>
@@ -989,7 +990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>48</v>
       </c>
@@ -1009,7 +1010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>49</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>50</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>51</v>
       </c>
@@ -1071,26 +1072,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A5" r:id="rId8" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A7" r:id="rId9" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A9" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="A3"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId3" ref="A4"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId4" ref="A6"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId5" ref="A8"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId6" ref="A10"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId7" ref="A12"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId8" ref="A5"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId9" ref="A7"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId10" ref="A9"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId11" ref="A11"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId12" ref="A13"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -1099,15 +1100,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="41.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="113.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="113.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1151,7 +1152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="2" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="3" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>39</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="4" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="5" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
@@ -1291,7 +1292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="6" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="7" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="8" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="9" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -1431,7 +1432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="10" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>39</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="11" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="12" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="5" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.9" r="13" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
@@ -1573,26 +1574,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A13" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B3" r:id="rId3" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B4" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B6" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B8" r:id="rId6" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B12" r:id="rId8" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B5" r:id="rId9" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B7" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B9" r:id="rId11" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B11" r:id="rId12" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
-    <hyperlink ref="B13" r:id="rId13" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A13"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="B2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId3" ref="B3"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId4" ref="B4"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId5" ref="B6"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId6" ref="B8"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId7" ref="B10"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId8" ref="B12"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId9" ref="B5"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId10" ref="B7"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId11" ref="B9"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId12" ref="B11"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId13" ref="B13"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -1601,19 +1602,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="42.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="60.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="60.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1657,7 +1658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="33.6" r="2" s="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -1697,10 +1698,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Tb000000eqWAJ" r:id="rId2" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeMonthly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeMonthly201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeMonthly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeMonthly201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeMonthly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeMonthly201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeMonthly201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite TaxGeneralAndLargeTaxcodeMonthly201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
